--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.012220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.012220.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3201,12 +3201,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5511,12 +5511,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6435,12 +6435,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6687,12 +6687,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7985,12 +7985,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9211,12 +9211,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9463,12 +9463,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10395,12 +10395,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10689,12 +10689,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10857,12 +10857,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10941,12 +10941,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11529,12 +11529,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11571,12 +11571,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11613,12 +11613,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11827,12 +11827,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11869,12 +11869,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11911,12 +11911,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12415,12 +12415,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12457,12 +12457,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12667,12 +12667,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13171,12 +13171,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13213,12 +13213,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13801,12 +13801,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13885,12 +13885,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14431,12 +14431,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14557,12 +14557,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14767,12 +14767,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14809,12 +14809,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15359,12 +15359,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15443,12 +15443,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15569,12 +15569,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16535,12 +16535,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16871,12 +16871,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16955,12 +16955,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17165,12 +17165,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17207,12 +17207,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17333,12 +17333,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17459,12 +17459,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17667,12 +17667,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17793,12 +17793,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18675,12 +18675,12 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18717,12 +18717,12 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18969,12 +18969,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19137,12 +19137,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19263,12 +19263,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20149,12 +20149,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20191,12 +20191,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20233,12 +20233,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20275,12 +20275,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20611,12 +20611,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20863,12 +20863,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21199,12 +21199,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21493,12 +21493,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21749,12 +21749,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22971,12 +22971,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23055,12 +23055,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23223,12 +23223,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23391,12 +23391,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23643,12 +23643,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24525,12 +24525,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24735,12 +24735,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24949,12 +24949,12 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24991,12 +24991,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25201,12 +25201,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25285,12 +25285,12 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25327,12 +25327,12 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25369,12 +25369,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25579,12 +25579,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26209,12 +26209,12 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26251,12 +26251,12 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26419,12 +26419,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26839,12 +26839,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27133,12 +27133,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27343,12 +27343,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28477,12 +28477,12 @@
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28771,12 +28771,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29107,12 +29107,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29149,12 +29149,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29317,12 +29317,12 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29401,12 +29401,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29695,12 +29695,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29737,12 +29737,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30451,12 +30451,12 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30493,12 +30493,12 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -30871,12 +30871,12 @@
       <c r="H724" t="inlineStr"/>
       <c r="I724" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30913,12 +30913,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30997,12 +30997,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31333,12 +31333,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31501,12 +31501,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -31627,12 +31627,12 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -31669,12 +31669,12 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31795,12 +31795,12 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
